--- a/Data/Processed/Angiosperms/missing_powo_ipni/Convolvulaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Convolvulaceae.xlsx
@@ -817,7 +817,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3435,7 +3435,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -8451,7 +8451,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -8649,7 +8649,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -10717,7 +10717,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -27525,7 +27525,7 @@
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
@@ -27613,7 +27613,7 @@
       </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
@@ -33311,7 +33311,7 @@
       </c>
       <c r="G594" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I594" t="inlineStr">
@@ -36806,7 +36806,7 @@
       </c>
       <c r="G657" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I657" t="inlineStr">
@@ -37499,7 +37499,7 @@
       </c>
       <c r="G669" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I669" t="inlineStr">
@@ -42812,7 +42812,7 @@
       </c>
       <c r="G765" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I765" t="inlineStr">
@@ -49882,7 +49882,7 @@
       </c>
       <c r="G893" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I893" t="inlineStr">
@@ -49970,7 +49970,7 @@
       </c>
       <c r="G894" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I894" t="inlineStr">
@@ -53303,7 +53303,7 @@
       </c>
       <c r="G954" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I954" t="inlineStr">
@@ -55811,7 +55811,7 @@
       </c>
       <c r="G999" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I999" t="inlineStr">
@@ -62719,7 +62719,7 @@
       </c>
       <c r="G1124" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I1124" t="inlineStr">
@@ -63302,7 +63302,7 @@
       </c>
       <c r="G1134" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I1134" t="inlineStr">
@@ -69987,7 +69987,7 @@
       </c>
       <c r="G1255" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1255" t="inlineStr">
@@ -70065,7 +70065,7 @@
       </c>
       <c r="G1256" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1256" t="inlineStr">
@@ -70075,7 +70075,7 @@
       </c>
       <c r="I1256" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 23(5, Beibl. 57): 38. 1897 [27 Aug 1897] </t>
+          <t>Bot. Jahrb. Syst. 23(5, Beibl. 57): 38. 1897 [27 Aug 1897]</t>
         </is>
       </c>
       <c r="J1256" t="b">
@@ -70143,7 +70143,7 @@
       </c>
       <c r="G1257" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1257" t="inlineStr">
@@ -70221,7 +70221,7 @@
       </c>
       <c r="G1258" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1258" t="inlineStr">
@@ -70231,7 +70231,7 @@
       </c>
       <c r="I1258" t="inlineStr">
         <is>
-          <t xml:space="preserve">Notizbl. Bot. Gart. Berlin-Dahlem 10: 102. 1927 </t>
+          <t>Notizbl. Bot. Gart. Berlin-Dahlem 10: 102. 1927</t>
         </is>
       </c>
       <c r="J1258" t="b">
@@ -70299,7 +70299,7 @@
       </c>
       <c r="G1259" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1259" t="inlineStr">
@@ -70377,7 +70377,7 @@
       </c>
       <c r="G1260" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1260" t="inlineStr">
@@ -70455,7 +70455,7 @@
       </c>
       <c r="G1261" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1261" t="inlineStr">
@@ -70465,7 +70465,7 @@
       </c>
       <c r="I1261" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 57(Mém. 3e): 484. 1910 </t>
+          <t>Bull. Soc. Bot. France 57(Mém. 3e): 484. 1910</t>
         </is>
       </c>
       <c r="J1261" t="b">
@@ -70533,7 +70533,7 @@
       </c>
       <c r="G1262" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1262" t="inlineStr">
@@ -70543,7 +70543,7 @@
       </c>
       <c r="I1262" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 23(5, Beibl. 57): 39. 1897 [27 Aug 1897] </t>
+          <t>Bot. Jahrb. Syst. 23(5, Beibl. 57): 39. 1897 [27 Aug 1897]</t>
         </is>
       </c>
       <c r="J1262" t="b">
@@ -70611,7 +70611,7 @@
       </c>
       <c r="G1263" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1263" t="inlineStr">
@@ -70621,7 +70621,7 @@
       </c>
       <c r="I1263" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. Mus. Paraense Emilio Goeldi, N.S., Bot. 4: 188, fig. 1988 </t>
+          <t>Bol. Mus. Paraense Emilio Goeldi, N.S., Bot. 4: 188, fig. 1988</t>
         </is>
       </c>
       <c r="J1263" t="b">
@@ -70689,7 +70689,7 @@
       </c>
       <c r="G1264" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1264" t="inlineStr">
@@ -70699,7 +70699,7 @@
       </c>
       <c r="I1264" t="inlineStr">
         <is>
-          <t xml:space="preserve">et Giorn. Arcad. 29: 343 (1826);. </t>
+          <t>et Giorn. Arcad. 29: 343 (1826);.</t>
         </is>
       </c>
       <c r="J1264" t="b">
@@ -70767,7 +70767,7 @@
       </c>
       <c r="G1265" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1265" t="inlineStr">
@@ -70777,7 +70777,7 @@
       </c>
       <c r="I1265" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. Agric. (Sao Paulo) 35: 474, tab. 1934 </t>
+          <t>Bol. Agric. (Sao Paulo) 35: 474, tab. 1934</t>
         </is>
       </c>
       <c r="J1265" t="b">
@@ -70845,7 +70845,7 @@
       </c>
       <c r="G1266" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1266" t="inlineStr">
@@ -70855,7 +70855,7 @@
       </c>
       <c r="I1266" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. Agric. (Sao Paulo) 35: 477, tab. 1934 </t>
+          <t>Bol. Agric. (Sao Paulo) 35: 477, tab. 1934</t>
         </is>
       </c>
       <c r="J1266" t="b">
@@ -70923,7 +70923,7 @@
       </c>
       <c r="G1267" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1267" t="inlineStr">
@@ -70933,7 +70933,7 @@
       </c>
       <c r="I1267" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arq. Mus. Nac. Rio de Janeiro 18: 13, 28. 1916 </t>
+          <t>Arq. Mus. Nac. Rio de Janeiro 18: 13, 28. 1916</t>
         </is>
       </c>
       <c r="J1267" t="b">
@@ -71001,7 +71001,7 @@
       </c>
       <c r="G1268" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1268" t="inlineStr">
@@ -71079,7 +71079,7 @@
       </c>
       <c r="G1269" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1269" t="inlineStr">
@@ -71157,7 +71157,7 @@
       </c>
       <c r="G1270" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1270" t="inlineStr">
@@ -71235,7 +71235,7 @@
       </c>
       <c r="G1271" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1271" t="inlineStr">
@@ -71313,7 +71313,7 @@
       </c>
       <c r="G1272" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1272" t="inlineStr">
